--- a/autoConditions/train1Block1Test.xlsx
+++ b/autoConditions/train1Block1Test.xlsx
@@ -487,15 +487,11 @@
           <t>pngimages/22_egg.png</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
+      <c r="E2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3">
@@ -519,21 +515,17 @@
           <t>pngimages/24_banana.png</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
+      <c r="E3" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainaudio/01_pitito.wav</t>
+          <t>trainaudio/01_kitipi.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -551,15 +543,11 @@
           <t>pngimages/27_kiwi.png</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
+      <c r="E4" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/autoConditions/train1Block1Test.xlsx
+++ b/autoConditions/train1Block1Test.xlsx
@@ -469,50 +469,50 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainaudio/18_popata.wav</t>
+          <t>trainingimages/01_kitipi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/18_donut.png</t>
+          <t>pngimages/01_gift.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>trainaudio/22_kakoki.wav</t>
+          <t>trainingimages/16_kotapi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>pngimages/22_egg.png</t>
+          <t>pngimages/16_icecream.png</t>
         </is>
       </c>
       <c r="E2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainaudio/10_tokiti.wav</t>
+          <t>trainingimages/05_titopo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/100_bicycle.png</t>
+          <t>pngimages/05_megaphone.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>trainaudio/24_takopa.wav</t>
+          <t>trainingimages/26_kapako</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pngimages/24_banana.png</t>
+          <t>pngimages/26_pineapple.png</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -525,22 +525,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainaudio/01_kitipi.wav</t>
+          <t>trainingimages/15_kopota</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/01_gift.png</t>
+          <t>pngimages/15_barrel.png</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>trainaudio/27_pakapa.wav</t>
+          <t>trainingimages/23_patoko</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>pngimages/27_kiwi.png</t>
+          <t>pngimages/23_lemon.png</t>
         </is>
       </c>
       <c r="E4" t="n">

--- a/autoConditions/train1Block1Test.xlsx
+++ b/autoConditions/train1Block1Test.xlsx
@@ -469,22 +469,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainingimages/01_kitipi</t>
+          <t>trainingaudio/06_titoka3.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/01_gift.png</t>
+          <t>pngimages/06_tent.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>trainingimages/16_kotapi</t>
+          <t>trainingaudio/07_pitapi2.wav</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>pngimages/16_icecream.png</t>
+          <t>pngimages/07_suitcase.png</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -497,57 +497,57 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainingimages/05_titopo</t>
+          <t>trainingaudio/03_kikita3.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/05_megaphone.png</t>
+          <t>pngimages/03_box.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>trainingimages/26_kapako</t>
+          <t>trainingaudio/09_tipata2.wav</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pngimages/26_pineapple.png</t>
+          <t>pngimages/09_plane.png</t>
         </is>
       </c>
       <c r="E3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="n">
         <v>-0.5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainingimages/15_kopota</t>
+          <t>trainingaudio/25_tapapi1.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/15_barrel.png</t>
+          <t>pngimages/25_apple.png</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>trainingimages/23_patoko</t>
+          <t>trainingaudio/11_tokiko1.wav</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>pngimages/23_lemon.png</t>
+          <t>pngimages/11_compass.png</t>
         </is>
       </c>
       <c r="E4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" t="n">
         <v>-0.5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
